--- a/uploads/Revised Research Portal Blueprint.xlsx
+++ b/uploads/Revised Research Portal Blueprint.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit.mishra.EXT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\research\research\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="Research Project, Consultancy" sheetId="5" r:id="rId6"/>
     <sheet name="Research Seminars" sheetId="14" r:id="rId7"/>
     <sheet name="Case Study" sheetId="15" r:id="rId8"/>
-    <sheet name="Teaching Excellence" sheetId="11" r:id="rId9"/>
-    <sheet name="Meeting Stakeholders" sheetId="12" r:id="rId10"/>
-    <sheet name="Branding" sheetId="13" r:id="rId11"/>
-    <sheet name="Reference Base Incentives_SBM" sheetId="7" r:id="rId12"/>
-    <sheet name="Reference Base Incentives_OS" sheetId="6" r:id="rId13"/>
-    <sheet name="Analysis Sample" sheetId="9" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
+    <sheet name="Teaching Excellence" sheetId="11" r:id="rId10"/>
+    <sheet name="Meeting Stakeholders" sheetId="12" r:id="rId11"/>
+    <sheet name="Branding" sheetId="13" r:id="rId12"/>
+    <sheet name="Reference Base Incentives_SBM" sheetId="7" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId14"/>
+    <sheet name="Reference Base Incentives_OS" sheetId="6" r:id="rId15"/>
+    <sheet name="Analysis Sample" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -810,7 +812,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1216,7 +1218,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1255,6 +1257,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1384,10 +1387,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-2948-4A82-8E27-F5DC34B52A93}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1405,10 +1410,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-2948-4A82-8E27-F5DC34B52A93}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1426,10 +1433,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-2948-4A82-8E27-F5DC34B52A93}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1447,10 +1456,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-2948-4A82-8E27-F5DC34B52A93}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1491,7 +1502,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1559,7 +1570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2948-4A82-8E27-F5DC34B52A93}"/>
             </c:ext>
@@ -1575,12 +1586,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="238206032"/>
-        <c:axId val="238205200"/>
+        <c:axId val="-934131232"/>
+        <c:axId val="-934130144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="238206032"/>
+        <c:axId val="-934131232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238205200"/>
+        <c:crossAx val="-934130144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238205200"/>
+        <c:axId val="-934130144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,6 +1706,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1755,7 +1767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238206032"/>
+        <c:crossAx val="-934131232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,7 +2370,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="A white sheet of paper with black text&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2426,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a document&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2475,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2494,7 @@
           <xdr:cNvPr id="3" name="Chart 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2503,7 +2515,7 @@
           <xdr:cNvPr id="4" name="TextBox 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2556,7 +2568,7 @@
           <xdr:cNvPr id="5" name="Up Arrow 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3752,6 +3764,161 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G1" location="'Home Page'!A1" display="Home"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3918,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4164,33 +4331,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Home Page'!A1" display="Home"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4210,9 +4355,43 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Home Page'!A1" display="Home"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -4567,7 +4746,7 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6157,155 +6336,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G1" location="'Home Page'!A1" display="Home"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/Revised Research Portal Blueprint.xlsx
+++ b/uploads/Revised Research Portal Blueprint.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\research\research\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit.mishra.EXT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,12 @@
     <sheet name="Research Project, Consultancy" sheetId="5" r:id="rId6"/>
     <sheet name="Research Seminars" sheetId="14" r:id="rId7"/>
     <sheet name="Case Study" sheetId="15" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
-    <sheet name="Teaching Excellence" sheetId="11" r:id="rId10"/>
-    <sheet name="Meeting Stakeholders" sheetId="12" r:id="rId11"/>
-    <sheet name="Branding" sheetId="13" r:id="rId12"/>
-    <sheet name="Reference Base Incentives_SBM" sheetId="7" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId14"/>
-    <sheet name="Reference Base Incentives_OS" sheetId="6" r:id="rId15"/>
-    <sheet name="Analysis Sample" sheetId="9" r:id="rId16"/>
+    <sheet name="Teaching Excellence" sheetId="11" r:id="rId9"/>
+    <sheet name="Meeting Stakeholders" sheetId="12" r:id="rId10"/>
+    <sheet name="Branding" sheetId="13" r:id="rId11"/>
+    <sheet name="Reference Base Incentives_SBM" sheetId="7" r:id="rId12"/>
+    <sheet name="Reference Base Incentives_OS" sheetId="6" r:id="rId13"/>
+    <sheet name="Analysis Sample" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -812,7 +810,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1218,7 +1216,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1257,7 +1255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1387,12 +1384,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-2948-4A82-8E27-F5DC34B52A93}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1410,12 +1405,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-2948-4A82-8E27-F5DC34B52A93}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1433,12 +1426,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-2948-4A82-8E27-F5DC34B52A93}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1456,12 +1447,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-2948-4A82-8E27-F5DC34B52A93}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1502,7 +1491,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1570,7 +1559,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2948-4A82-8E27-F5DC34B52A93}"/>
             </c:ext>
@@ -1586,12 +1575,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-934131232"/>
-        <c:axId val="-934130144"/>
+        <c:axId val="238206032"/>
+        <c:axId val="238205200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-934131232"/>
+        <c:axId val="238206032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934130144"/>
+        <c:crossAx val="238205200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1650,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-934130144"/>
+        <c:axId val="238205200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1695,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1767,7 +1755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934131232"/>
+        <c:crossAx val="238206032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2370,7 +2358,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="A white sheet of paper with black text&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2414,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a document&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2463,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2482,7 @@
           <xdr:cNvPr id="3" name="Chart 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2515,7 +2503,7 @@
           <xdr:cNvPr id="4" name="TextBox 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2568,7 +2556,7 @@
           <xdr:cNvPr id="5" name="Up Arrow 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3764,161 +3752,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G1" location="'Home Page'!A1" display="Home"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4085,7 +3918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4331,11 +4164,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Home Page'!A1" display="Home"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4355,43 +4210,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Home Page'!A1" display="Home"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -4746,7 +4567,7 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6336,12 +6157,155 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G1" location="'Home Page'!A1" display="Home"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>